--- a/trunk/social-analytics/social-analytics-collector/doc/collect_object.xlsx
+++ b/trunk/social-analytics/social-analytics-collector/doc/collect_object.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>393499958</v>
+        <v>443904275</v>
       </c>
       <c r="D2">
         <v>3</v>
